--- a/krilov/files/18/18var20.xlsx
+++ b/krilov/files/18/18var20.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sr/Yandex.Disk.localized/Компьютер/Различные работы/Сборник/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70267747-9F35-5446-81E8-E7D490CA8362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{86B6F546-B461-3743-9AEA-019860B20F26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -35,13 +29,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -136,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -146,6 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -206,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -452,23 +467,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6C034E-CBB0-4F4D-8FDB-6BF9B75F6319}">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="5.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>29</v>
       </c>
@@ -518,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>11</v>
       </c>
@@ -568,7 +586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>21</v>
       </c>
@@ -618,7 +636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -668,7 +686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>16</v>
       </c>
@@ -718,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>16</v>
       </c>
@@ -768,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>11</v>
       </c>
@@ -818,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>16</v>
       </c>
@@ -868,7 +886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>18</v>
       </c>
@@ -918,7 +936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20</v>
       </c>
@@ -968,7 +986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>29</v>
       </c>
@@ -1018,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>17</v>
       </c>
@@ -1068,7 +1086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>29</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>29</v>
       </c>
@@ -1168,7 +1186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>18</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>19</v>
       </c>
@@ -1268,8 +1286,1066 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f>A1</f>
+        <v>29</v>
+      </c>
+      <c r="B18" s="10">
+        <f>A18+B1</f>
+        <v>59</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:O18" si="0">B18+C1</f>
+        <v>76</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="P18" s="10">
+        <f>O18+P1</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f>A18+A2</f>
+        <v>40</v>
+      </c>
+      <c r="B19" s="12">
+        <f>MIN(A19,B18)+B2</f>
+        <v>66</v>
+      </c>
+      <c r="C19" s="12">
+        <f>MIN(B19,C18)+C2</f>
+        <v>82</v>
+      </c>
+      <c r="D19" s="12">
+        <f>MIN(C19,D18)+D2</f>
+        <v>96</v>
+      </c>
+      <c r="E19" s="12">
+        <f>MIN(D19,E18)+E2</f>
+        <v>109</v>
+      </c>
+      <c r="F19" s="12">
+        <f>MIN(E19,F18)+F2</f>
+        <v>133</v>
+      </c>
+      <c r="G19" s="12">
+        <f>MIN(F19,G18)+G2</f>
+        <v>162</v>
+      </c>
+      <c r="H19" s="12">
+        <f>MIN(G19,H18)+H2</f>
+        <v>177</v>
+      </c>
+      <c r="I19" s="12">
+        <f>MIN(H19,I18)+I2</f>
+        <v>206</v>
+      </c>
+      <c r="J19" s="12">
+        <f>MIN(I19,J18)+J2</f>
+        <v>233</v>
+      </c>
+      <c r="K19" s="12">
+        <f>MIN(J19,K18)+K2</f>
+        <v>236</v>
+      </c>
+      <c r="L19" s="12">
+        <f>MIN(K19,L18)+L2</f>
+        <v>249</v>
+      </c>
+      <c r="M19" s="12">
+        <f>MIN(L19,M18)+M2</f>
+        <v>279</v>
+      </c>
+      <c r="N19" s="12">
+        <f>MIN(M19,N18)+N2</f>
+        <v>297</v>
+      </c>
+      <c r="O19" s="12">
+        <f>MIN(N19,O18)+O2</f>
+        <v>318</v>
+      </c>
+      <c r="P19" s="13">
+        <f>MIN(O19,P18)+P2</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f t="shared" ref="A20:A33" si="1">A19+A3</f>
+        <v>61</v>
+      </c>
+      <c r="B20" s="12">
+        <f>MIN(A20,B19)+B3</f>
+        <v>84</v>
+      </c>
+      <c r="C20" s="12">
+        <f>MIN(B20,C19)+C3</f>
+        <v>106</v>
+      </c>
+      <c r="D20" s="12">
+        <f>MIN(C20,D19)+D3</f>
+        <v>110</v>
+      </c>
+      <c r="E20" s="12">
+        <f>MIN(D20,E19)+E3</f>
+        <v>138</v>
+      </c>
+      <c r="F20" s="12">
+        <f>MIN(E20,F19)+F3</f>
+        <v>160</v>
+      </c>
+      <c r="G20" s="12">
+        <f>MIN(F20,G19)+G3</f>
+        <v>178</v>
+      </c>
+      <c r="H20" s="12">
+        <f>MIN(G20,H19)+H3</f>
+        <v>191</v>
+      </c>
+      <c r="I20" s="12">
+        <f>MIN(H20,I19)+I3</f>
+        <v>211</v>
+      </c>
+      <c r="J20" s="12">
+        <f>MIN(I20,J19)+J3</f>
+        <v>226</v>
+      </c>
+      <c r="K20" s="12">
+        <f>MIN(J20,K19)+K3</f>
+        <v>238</v>
+      </c>
+      <c r="L20" s="12">
+        <f>MIN(K20,L19)+L3</f>
+        <v>252</v>
+      </c>
+      <c r="M20" s="12">
+        <f>MIN(L20,M19)+M3</f>
+        <v>282</v>
+      </c>
+      <c r="N20" s="12">
+        <f>MIN(M20,N19)+N3</f>
+        <v>302</v>
+      </c>
+      <c r="O20" s="12">
+        <f>MIN(N20,O19)+O3</f>
+        <v>315</v>
+      </c>
+      <c r="P20" s="13">
+        <f>MIN(O20,P19)+P3</f>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B21" s="12">
+        <f>MIN(A21,B20)+B4</f>
+        <v>102</v>
+      </c>
+      <c r="C21" s="12">
+        <f>MIN(B21,C20)+C4</f>
+        <v>122</v>
+      </c>
+      <c r="D21" s="12">
+        <f>MIN(C21,D20)+D4</f>
+        <v>130</v>
+      </c>
+      <c r="E21" s="12">
+        <f>MIN(D21,E20)+E4</f>
+        <v>156</v>
+      </c>
+      <c r="F21" s="12">
+        <f>MIN(E21,F20)+F4</f>
+        <v>176</v>
+      </c>
+      <c r="G21" s="12">
+        <f>MIN(F21,G20)+G4</f>
+        <v>200</v>
+      </c>
+      <c r="H21" s="12">
+        <f>MIN(G21,H20)+H4</f>
+        <v>215</v>
+      </c>
+      <c r="I21" s="12">
+        <f>MIN(H21,I20)+I4</f>
+        <v>227</v>
+      </c>
+      <c r="J21" s="12">
+        <f>MIN(I21,J20)+J4</f>
+        <v>236</v>
+      </c>
+      <c r="K21" s="12">
+        <f>MIN(J21,K20)+K4</f>
+        <v>247</v>
+      </c>
+      <c r="L21" s="12">
+        <f>MIN(K21,L20)+L4</f>
+        <v>261</v>
+      </c>
+      <c r="M21" s="12">
+        <f>MIN(L21,M20)+M4</f>
+        <v>282</v>
+      </c>
+      <c r="N21" s="12">
+        <f>MIN(M21,N20)+N4</f>
+        <v>304</v>
+      </c>
+      <c r="O21" s="12">
+        <f>MIN(N21,O20)+O4</f>
+        <v>323</v>
+      </c>
+      <c r="P21" s="13">
+        <f>MIN(O21,P20)+P4</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B22" s="12">
+        <f>MIN(A22,B21)+B5</f>
+        <v>120</v>
+      </c>
+      <c r="C22" s="12">
+        <f>MIN(B22,C21)+C5</f>
+        <v>148</v>
+      </c>
+      <c r="D22" s="12">
+        <f>MIN(C22,D21)+D5</f>
+        <v>149</v>
+      </c>
+      <c r="E22" s="12">
+        <f>MIN(D22,E21)+E5</f>
+        <v>169</v>
+      </c>
+      <c r="F22" s="12">
+        <f>MIN(E22,F21)+F5</f>
+        <v>197</v>
+      </c>
+      <c r="G22" s="12">
+        <f>MIN(F22,G21)+G5</f>
+        <v>219</v>
+      </c>
+      <c r="H22" s="12">
+        <f>MIN(G22,H21)+H5</f>
+        <v>242</v>
+      </c>
+      <c r="I22" s="12">
+        <f>MIN(H22,I21)+I5</f>
+        <v>253</v>
+      </c>
+      <c r="J22" s="12">
+        <f>MIN(I22,J21)+J5</f>
+        <v>246</v>
+      </c>
+      <c r="K22" s="12">
+        <f>MIN(J22,K21)+K5</f>
+        <v>274</v>
+      </c>
+      <c r="L22" s="12">
+        <f>MIN(K22,L21)+L5</f>
+        <v>272</v>
+      </c>
+      <c r="M22" s="12">
+        <f>MIN(L22,M21)+M5</f>
+        <v>284</v>
+      </c>
+      <c r="N22" s="12">
+        <f>MIN(M22,N21)+N5</f>
+        <v>313</v>
+      </c>
+      <c r="O22" s="12">
+        <f>MIN(N22,O21)+O5</f>
+        <v>343</v>
+      </c>
+      <c r="P22" s="13">
+        <f>MIN(O22,P21)+P5</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B23" s="12">
+        <f>MIN(A23,B22)+B6</f>
+        <v>135</v>
+      </c>
+      <c r="C23" s="12">
+        <f>MIN(B23,C22)+C6</f>
+        <v>155</v>
+      </c>
+      <c r="D23" s="12">
+        <f>MIN(C23,D22)+D6</f>
+        <v>177</v>
+      </c>
+      <c r="E23" s="12">
+        <f>MIN(D23,E22)+E6</f>
+        <v>198</v>
+      </c>
+      <c r="F23" s="12">
+        <f>MIN(E23,F22)+F6</f>
+        <v>220</v>
+      </c>
+      <c r="G23" s="12">
+        <f>MIN(F23,G22)+G6</f>
+        <v>243</v>
+      </c>
+      <c r="H23" s="12">
+        <f>MIN(G23,H22)+H6</f>
+        <v>256</v>
+      </c>
+      <c r="I23" s="12">
+        <f>MIN(H23,I22)+I6</f>
+        <v>264</v>
+      </c>
+      <c r="J23" s="12">
+        <f>MIN(I23,J22)+J6</f>
+        <v>275</v>
+      </c>
+      <c r="K23" s="12">
+        <f>MIN(J23,K22)+K6</f>
+        <v>302</v>
+      </c>
+      <c r="L23" s="12">
+        <f>MIN(K23,L22)+L6</f>
+        <v>287</v>
+      </c>
+      <c r="M23" s="12">
+        <f>MIN(L23,M22)+M6</f>
+        <v>294</v>
+      </c>
+      <c r="N23" s="12">
+        <f>MIN(M23,N22)+N6</f>
+        <v>310</v>
+      </c>
+      <c r="O23" s="12">
+        <f>MIN(N23,O22)+O6</f>
+        <v>326</v>
+      </c>
+      <c r="P23" s="13">
+        <f>MIN(O23,P22)+P6</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B24" s="12">
+        <f>MIN(A24,B23)+B7</f>
+        <v>158</v>
+      </c>
+      <c r="C24" s="12">
+        <f>MIN(B24,C23)+C7</f>
+        <v>176</v>
+      </c>
+      <c r="D24" s="12">
+        <f>MIN(C24,D23)+D7</f>
+        <v>201</v>
+      </c>
+      <c r="E24" s="12">
+        <f>MIN(D24,E23)+E7</f>
+        <v>222</v>
+      </c>
+      <c r="F24" s="12">
+        <f>MIN(E24,F23)+F7</f>
+        <v>233</v>
+      </c>
+      <c r="G24" s="12">
+        <f>MIN(F24,G23)+G7</f>
+        <v>263</v>
+      </c>
+      <c r="H24" s="12">
+        <f>MIN(G24,H23)+H7</f>
+        <v>270</v>
+      </c>
+      <c r="I24" s="12">
+        <f>MIN(H24,I23)+I7</f>
+        <v>289</v>
+      </c>
+      <c r="J24" s="12">
+        <f>MIN(I24,J23)+J7</f>
+        <v>293</v>
+      </c>
+      <c r="K24" s="12">
+        <f>MIN(J24,K23)+K7</f>
+        <v>317</v>
+      </c>
+      <c r="L24" s="12">
+        <f>MIN(K24,L23)+L7</f>
+        <v>311</v>
+      </c>
+      <c r="M24" s="12">
+        <f>MIN(L24,M23)+M7</f>
+        <v>304</v>
+      </c>
+      <c r="N24" s="12">
+        <f>MIN(M24,N23)+N7</f>
+        <v>316</v>
+      </c>
+      <c r="O24" s="12">
+        <f>MIN(N24,O23)+O7</f>
+        <v>335</v>
+      </c>
+      <c r="P24" s="13">
+        <f>MIN(O24,P23)+P7</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="B25" s="12">
+        <f>MIN(A25,B24)+B8</f>
+        <v>161</v>
+      </c>
+      <c r="C25" s="12">
+        <f>MIN(B25,C24)+C8</f>
+        <v>186</v>
+      </c>
+      <c r="D25" s="12">
+        <f>MIN(C25,D24)+D8</f>
+        <v>199</v>
+      </c>
+      <c r="E25" s="12">
+        <f>MIN(D25,E24)+E8</f>
+        <v>221</v>
+      </c>
+      <c r="F25" s="12">
+        <f>MIN(E25,F24)+F8</f>
+        <v>247</v>
+      </c>
+      <c r="G25" s="12">
+        <f>MIN(F25,G24)+G8</f>
+        <v>262</v>
+      </c>
+      <c r="H25" s="12">
+        <f>MIN(G25,H24)+H8</f>
+        <v>280</v>
+      </c>
+      <c r="I25" s="12">
+        <f>MIN(H25,I24)+I8</f>
+        <v>308</v>
+      </c>
+      <c r="J25" s="12">
+        <f>MIN(I25,J24)+J8</f>
+        <v>305</v>
+      </c>
+      <c r="K25" s="12">
+        <f>MIN(J25,K24)+K8</f>
+        <v>329</v>
+      </c>
+      <c r="L25" s="12">
+        <f>MIN(K25,L24)+L8</f>
+        <v>321</v>
+      </c>
+      <c r="M25" s="12">
+        <f>MIN(L25,M24)+M8</f>
+        <v>328</v>
+      </c>
+      <c r="N25" s="12">
+        <f>MIN(M25,N24)+N8</f>
+        <v>338</v>
+      </c>
+      <c r="O25" s="12">
+        <f>MIN(N25,O24)+O8</f>
+        <v>348</v>
+      </c>
+      <c r="P25" s="13">
+        <f>MIN(O25,P24)+P8</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="B26" s="12">
+        <f>MIN(A26,B25)+B9</f>
+        <v>180</v>
+      </c>
+      <c r="C26" s="12">
+        <f>MIN(B26,C25)+C9</f>
+        <v>207</v>
+      </c>
+      <c r="D26" s="12">
+        <f>MIN(C26,D25)+D9</f>
+        <v>210</v>
+      </c>
+      <c r="E26" s="12">
+        <f>MIN(D26,E25)+E9</f>
+        <v>230</v>
+      </c>
+      <c r="F26" s="12">
+        <f>MIN(E26,F25)+F9</f>
+        <v>241</v>
+      </c>
+      <c r="G26" s="12">
+        <f>MIN(F26,G25)+G9</f>
+        <v>251</v>
+      </c>
+      <c r="H26" s="12">
+        <f>MIN(G26,H25)+H9</f>
+        <v>278</v>
+      </c>
+      <c r="I26" s="12">
+        <f>MIN(H26,I25)+I9</f>
+        <v>294</v>
+      </c>
+      <c r="J26" s="12">
+        <f>MIN(I26,J25)+J9</f>
+        <v>321</v>
+      </c>
+      <c r="K26" s="12">
+        <f>MIN(J26,K25)+K9</f>
+        <v>331</v>
+      </c>
+      <c r="L26" s="12">
+        <f>MIN(K26,L25)+L9</f>
+        <v>342</v>
+      </c>
+      <c r="M26" s="12">
+        <f>MIN(L26,M25)+M9</f>
+        <v>350</v>
+      </c>
+      <c r="N26" s="12">
+        <f>MIN(M26,N25)+N9</f>
+        <v>349</v>
+      </c>
+      <c r="O26" s="12">
+        <f>MIN(N26,O25)+O9</f>
+        <v>370</v>
+      </c>
+      <c r="P26" s="13">
+        <f>MIN(O26,P25)+P9</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="B27" s="12">
+        <f>MIN(A27,B26)+B10</f>
+        <v>201</v>
+      </c>
+      <c r="C27" s="12">
+        <f>MIN(B27,C26)+C10</f>
+        <v>225</v>
+      </c>
+      <c r="D27" s="12">
+        <f>MIN(C27,D26)+D10</f>
+        <v>239</v>
+      </c>
+      <c r="E27" s="12">
+        <f>MIN(D27,E26)+E10</f>
+        <v>252</v>
+      </c>
+      <c r="F27" s="12">
+        <f>MIN(E27,F26)+F10</f>
+        <v>270</v>
+      </c>
+      <c r="G27" s="12">
+        <f>MIN(F27,G26)+G10</f>
+        <v>265</v>
+      </c>
+      <c r="H27" s="12">
+        <f>MIN(G27,H26)+H10</f>
+        <v>289</v>
+      </c>
+      <c r="I27" s="14">
+        <f>MIN(H27,I26)+I10</f>
+        <v>313</v>
+      </c>
+      <c r="J27" s="14">
+        <f>MIN(I27,J26)+J10</f>
+        <v>340</v>
+      </c>
+      <c r="K27" s="14">
+        <f>MIN(J27,K26)+K10</f>
+        <v>345</v>
+      </c>
+      <c r="L27" s="14">
+        <f>MIN(K27,L26)+L10</f>
+        <v>368</v>
+      </c>
+      <c r="M27" s="14">
+        <f>MIN(L27,M26)+M10</f>
+        <v>379</v>
+      </c>
+      <c r="N27" s="14">
+        <f>MIN(M27,N26)+N10</f>
+        <v>362</v>
+      </c>
+      <c r="O27" s="12">
+        <f>MIN(N27,O26)+O10</f>
+        <v>378</v>
+      </c>
+      <c r="P27" s="13">
+        <f>MIN(O27,P26)+P10</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="B28" s="12">
+        <f>MIN(A28,B27)+B11</f>
+        <v>218</v>
+      </c>
+      <c r="C28" s="12">
+        <f>MIN(B28,C27)+C11</f>
+        <v>234</v>
+      </c>
+      <c r="D28" s="12">
+        <f>MIN(C28,D27)+D11</f>
+        <v>250</v>
+      </c>
+      <c r="E28" s="12">
+        <f>MIN(D28,E27)+E11</f>
+        <v>280</v>
+      </c>
+      <c r="F28" s="12">
+        <f>MIN(E28,F27)+F11</f>
+        <v>283</v>
+      </c>
+      <c r="G28" s="12">
+        <f>MIN(F28,G27)+G11</f>
+        <v>284</v>
+      </c>
+      <c r="H28" s="12">
+        <f>MIN(G28,H27)+H11</f>
+        <v>314</v>
+      </c>
+      <c r="I28" s="12">
+        <f>H28+I11</f>
+        <v>344</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" ref="J28:N28" si="2">I28+J11</f>
+        <v>363</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="2"/>
+        <v>412</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="O28" s="12">
+        <f>MIN(N28,O27)+O11</f>
+        <v>403</v>
+      </c>
+      <c r="P28" s="13">
+        <f>MIN(O28,P27)+P11</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="B29" s="12">
+        <f>MIN(A29,B28)+B12</f>
+        <v>231</v>
+      </c>
+      <c r="C29" s="12">
+        <f>MIN(B29,C28)+C12</f>
+        <v>261</v>
+      </c>
+      <c r="D29" s="12">
+        <f>MIN(C29,D28)+D12</f>
+        <v>271</v>
+      </c>
+      <c r="E29" s="12">
+        <f>MIN(D29,E28)+E12</f>
+        <v>283</v>
+      </c>
+      <c r="F29" s="12">
+        <f>MIN(E29,F28)+F12</f>
+        <v>302</v>
+      </c>
+      <c r="G29" s="12">
+        <f>MIN(F29,G28)+G12</f>
+        <v>306</v>
+      </c>
+      <c r="H29" s="12">
+        <f>MIN(G29,H28)+H12</f>
+        <v>329</v>
+      </c>
+      <c r="I29" s="12">
+        <f>MIN(H29,I28)+I12</f>
+        <v>340</v>
+      </c>
+      <c r="J29" s="12">
+        <f>MIN(I29,J28)+J12</f>
+        <v>366</v>
+      </c>
+      <c r="K29" s="12">
+        <f>MIN(J29,K28)+K12</f>
+        <v>382</v>
+      </c>
+      <c r="L29" s="12">
+        <f>MIN(K29,L28)+L12</f>
+        <v>399</v>
+      </c>
+      <c r="M29" s="12">
+        <f>MIN(L29,M28)+M12</f>
+        <v>417</v>
+      </c>
+      <c r="N29" s="12">
+        <f>MIN(M29,N28)+N12</f>
+        <v>435</v>
+      </c>
+      <c r="O29" s="12">
+        <f>MIN(N29,O28)+O12</f>
+        <v>421</v>
+      </c>
+      <c r="P29" s="13">
+        <f>MIN(O29,P28)+P12</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="B30" s="12">
+        <f>MIN(A30,B29)+B13</f>
+        <v>254</v>
+      </c>
+      <c r="C30" s="12">
+        <f>MIN(B30,C29)+C13</f>
+        <v>271</v>
+      </c>
+      <c r="D30" s="12">
+        <f>MIN(C30,D29)+D13</f>
+        <v>289</v>
+      </c>
+      <c r="E30" s="12">
+        <f>MIN(D30,E29)+E13</f>
+        <v>300</v>
+      </c>
+      <c r="F30" s="12">
+        <f>MIN(E30,F29)+F13</f>
+        <v>328</v>
+      </c>
+      <c r="G30" s="12">
+        <f>MIN(F30,G29)+G13</f>
+        <v>319</v>
+      </c>
+      <c r="H30" s="12">
+        <f>MIN(G30,H29)+H13</f>
+        <v>347</v>
+      </c>
+      <c r="I30" s="12">
+        <f>MIN(H30,I29)+I13</f>
+        <v>370</v>
+      </c>
+      <c r="J30" s="12">
+        <f>MIN(I30,J29)+J13</f>
+        <v>381</v>
+      </c>
+      <c r="K30" s="12">
+        <f>MIN(J30,K29)+K13</f>
+        <v>398</v>
+      </c>
+      <c r="L30" s="12">
+        <f>MIN(K30,L29)+L13</f>
+        <v>415</v>
+      </c>
+      <c r="M30" s="12">
+        <f>MIN(L30,M29)+M13</f>
+        <v>426</v>
+      </c>
+      <c r="N30" s="12">
+        <f>MIN(M30,N29)+N13</f>
+        <v>437</v>
+      </c>
+      <c r="O30" s="12">
+        <f>MIN(N30,O29)+O13</f>
+        <v>431</v>
+      </c>
+      <c r="P30" s="13">
+        <f>MIN(O30,P29)+P13</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="B31" s="12">
+        <f>MIN(A31,B30)+B14</f>
+        <v>271</v>
+      </c>
+      <c r="C31" s="12">
+        <f>MIN(B31,C30)+C14</f>
+        <v>283</v>
+      </c>
+      <c r="D31" s="12">
+        <f>MIN(C31,D30)+D14</f>
+        <v>296</v>
+      </c>
+      <c r="E31" s="12">
+        <f>MIN(D31,E30)+E14</f>
+        <v>319</v>
+      </c>
+      <c r="F31" s="12">
+        <f>MIN(E31,F30)+F14</f>
+        <v>341</v>
+      </c>
+      <c r="G31" s="12">
+        <f>MIN(F31,G30)+G14</f>
+        <v>329</v>
+      </c>
+      <c r="H31" s="12">
+        <f>MIN(G31,H30)+H14</f>
+        <v>354</v>
+      </c>
+      <c r="I31" s="12">
+        <f>MIN(H31,I30)+I14</f>
+        <v>381</v>
+      </c>
+      <c r="J31" s="12">
+        <f>MIN(I31,J30)+J14</f>
+        <v>407</v>
+      </c>
+      <c r="K31" s="12">
+        <f>MIN(J31,K30)+K14</f>
+        <v>412</v>
+      </c>
+      <c r="L31" s="12">
+        <f>MIN(K31,L30)+L14</f>
+        <v>441</v>
+      </c>
+      <c r="M31" s="12">
+        <f>MIN(L31,M30)+M14</f>
+        <v>436</v>
+      </c>
+      <c r="N31" s="12">
+        <f>MIN(M31,N30)+N14</f>
+        <v>457</v>
+      </c>
+      <c r="O31" s="12">
+        <f>MIN(N31,O30)+O14</f>
+        <v>447</v>
+      </c>
+      <c r="P31" s="13">
+        <f>MIN(O31,P30)+P14</f>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="B32" s="12">
+        <f>MIN(A32,B31)+B15</f>
+        <v>291</v>
+      </c>
+      <c r="C32" s="12">
+        <f>MIN(B32,C31)+C15</f>
+        <v>303</v>
+      </c>
+      <c r="D32" s="12">
+        <f>MIN(C32,D31)+D15</f>
+        <v>313</v>
+      </c>
+      <c r="E32" s="12">
+        <f>MIN(D32,E31)+E15</f>
+        <v>333</v>
+      </c>
+      <c r="F32" s="12">
+        <f>MIN(E32,F31)+F15</f>
+        <v>344</v>
+      </c>
+      <c r="G32" s="12">
+        <f>MIN(F32,G31)+G15</f>
+        <v>349</v>
+      </c>
+      <c r="H32" s="12">
+        <f>MIN(G32,H31)+H15</f>
+        <v>360</v>
+      </c>
+      <c r="I32" s="12">
+        <f>MIN(H32,I31)+I15</f>
+        <v>389</v>
+      </c>
+      <c r="J32" s="12">
+        <f>MIN(I32,J31)+J15</f>
+        <v>405</v>
+      </c>
+      <c r="K32" s="12">
+        <f>MIN(J32,K31)+K15</f>
+        <v>434</v>
+      </c>
+      <c r="L32" s="12">
+        <f>MIN(K32,L31)+L15</f>
+        <v>452</v>
+      </c>
+      <c r="M32" s="12">
+        <f>MIN(L32,M31)+M15</f>
+        <v>448</v>
+      </c>
+      <c r="N32" s="12">
+        <f>MIN(M32,N31)+N15</f>
+        <v>464</v>
+      </c>
+      <c r="O32" s="12">
+        <f>MIN(N32,O31)+O15</f>
+        <v>458</v>
+      </c>
+      <c r="P32" s="13">
+        <f>MIN(O32,P31)+P15</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="B33" s="14">
+        <f>MIN(A33,B32)+B16</f>
+        <v>319</v>
+      </c>
+      <c r="C33" s="14">
+        <f>MIN(B33,C32)+C16</f>
+        <v>332</v>
+      </c>
+      <c r="D33" s="14">
+        <f>MIN(C33,D32)+D16</f>
+        <v>324</v>
+      </c>
+      <c r="E33" s="14">
+        <f>MIN(D33,E32)+E16</f>
+        <v>343</v>
+      </c>
+      <c r="F33" s="14">
+        <f>MIN(E33,F32)+F16</f>
+        <v>362</v>
+      </c>
+      <c r="G33" s="14">
+        <f>MIN(F33,G32)+G16</f>
+        <v>374</v>
+      </c>
+      <c r="H33" s="14">
+        <f>MIN(G33,H32)+H16</f>
+        <v>382</v>
+      </c>
+      <c r="I33" s="14">
+        <f>MIN(H33,I32)+I16</f>
+        <v>395</v>
+      </c>
+      <c r="J33" s="14">
+        <f>MIN(I33,J32)+J16</f>
+        <v>408</v>
+      </c>
+      <c r="K33" s="14">
+        <f>MIN(J33,K32)+K16</f>
+        <v>421</v>
+      </c>
+      <c r="L33" s="14">
+        <f>MIN(K33,L32)+L16</f>
+        <v>432</v>
+      </c>
+      <c r="M33" s="14">
+        <f>MIN(L33,M32)+M16</f>
+        <v>455</v>
+      </c>
+      <c r="N33" s="14">
+        <f>MIN(M33,N32)+N16</f>
+        <v>481</v>
+      </c>
+      <c r="O33" s="14">
+        <f>MIN(N33,O32)+O16</f>
+        <v>478</v>
+      </c>
+      <c r="P33" s="15">
+        <f>MIN(O33,P32)+P16</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>